--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Fields.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BEAD7B-BECB-CD41-A42A-9EB2C7739FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AA92A2-B057-DB46-A881-D2B7652EF665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitorees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="228">
   <si>
     <t>First Name</t>
   </si>
@@ -695,6 +695,15 @@
   </si>
   <si>
     <t>333-333-3333</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -1047,25 +1056,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU12"/>
+  <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="CX14" sqref="CX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -1073,13 +1081,13 @@
     <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.1640625" bestFit="1" customWidth="1"/>
@@ -1105,7 +1113,7 @@
     <col min="48" max="48" width="24" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="15" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -1137,7 +1145,7 @@
     <col min="80" max="80" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="38" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="34" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -1145,16 +1153,21 @@
     <col min="88" max="88" width="14.5" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="12" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="14.5" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="16" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1452,8 +1465,17 @@
       <c r="CU1" t="s">
         <v>223</v>
       </c>
+      <c r="CV1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="D2" s="1" t="s">
         <v>219</v>
       </c>
@@ -1660,7 +1682,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
         <v>220</v>
       </c>
@@ -1672,7 +1694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -1911,7 +1933,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -2174,13 +2196,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
       <c r="BW6" s="1"/>
       <c r="CB6" s="1"/>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
       <c r="D7" s="2"/>
       <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
@@ -2193,7 +2215,7 @@
       <c r="CO7" s="2"/>
       <c r="CP7" s="3"/>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2210,7 +2232,7 @@
       <c r="CB8" s="1"/>
       <c r="CD8" s="1"/>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
       <c r="D9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2227,7 +2249,7 @@
       <c r="CC9" s="1"/>
       <c r="CD9" s="1"/>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
       <c r="AZ10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BO10" s="3"/>
@@ -2236,7 +2258,7 @@
       <c r="CO10" s="3"/>
       <c r="CP10" s="2"/>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
       <c r="D12" s="1"/>
     </row>
   </sheetData>
